--- a/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/doubao_yanzi_evaluated.xlsx
+++ b/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/doubao_yanzi_evaluated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,11 @@
           <t>同学们好啊，请坐，</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“同学们好啊，请坐”只是老师向同学们打招呼并让同学们坐下的常规指令，并没有发起任何具体的课堂活动。
@@ -513,7 +517,11 @@
           <t>感谢齐森的分享。那么我们回顾郑振铎先生笔下的燕子，是有一身乌黑的羽毛，</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“感谢齐森的分享”表明齐森刚刚完成了分享活动。“那么我们回顾郑振铎先生笔下的燕子，是有一身乌黑的羽毛”体现出老师发起了一个开展课堂活动的指令，其中“我们回顾”体现出这个课堂活动是由全体学生共同参与的。进一步地，“回顾”体现出老师要求学生共同思考燕子的相关内容，思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -545,7 +553,11 @@
           <t>好，同学们，今天让我们再次走进第一单元。第二课，燕子，</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“好，同学们，今天让我们再次走进第一单元。第二课，燕子”体现出老师发起了一个开展课堂活动的指令，邀请全体学生共同参与，但没有明确说明具体的课堂活动形式和内容。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、但无法判定具体的课堂活动，符合“集体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“集体未知”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -577,7 +589,11 @@
           <t>准备，好三二一吹拂赶集聚拢，吹拂赶集聚拢吹拂赶集聚拢，</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>同步练习</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师的表述没有明确的指令或提示，无法判断接下来学生要开展的具体课堂活动。
@@ -590,7 +606,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -609,7 +625,11 @@
           <t>形成偶尔纤细，形成偶尔纤细，</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段待分析文本内容不完整，没有明确体现出老师发起课堂活动的指令，无法判断课堂活动的类别。
@@ -641,7 +661,11 @@
           <t>相信大家都出色的完成了第一关。那么我们来看看第二关，谁来读一读，谁要求，律人。</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那么我们来看看第二关，谁来读一读”体现出老师发起了一个开展课堂活动的指令。“谁来读一读”中的“谁”体现出老师邀请一位学生来执行朗读任务。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -654,7 +678,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -673,7 +697,11 @@
           <t>好，请坐，听懂了吗？</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“好，请坐，听懂了吗？”老师没有发起任何开展课堂活动的指令，只是在确认学生的理解情况，并让某位同学坐下。综合上述整段话的分析过程，这段话只是老师在与学生交流，没有开展课堂活动的指令。
@@ -705,7 +733,11 @@
           <t>你来分享一下，你找到了哪些景物，</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你来分享一下”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动。“你找到了哪些景物”体现出该学生被要求用话语来分享自己找到的景物。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -718,7 +750,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -737,7 +769,11 @@
           <t>好，请坐谁再来说一说，这两位同学说的都对谁来重复一遍，</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“谁再来说一说”体现出老师发起了一个开展课堂活动的指令，邀请一位学生用话语来回答问题。“谁来重复一遍”体现出老师邀请一位学生重复前面同学说的内容。综合上述整段话的分析过程，这两个指令都是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -750,7 +786,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -769,7 +805,11 @@
           <t>构成了我们的春光燕子图。那这这幅美丽的春光图让你脑海中产生了什么样的画面呢？你可以根据一个词或几个词，或者把你脑海中想象的说出来。陈梦然，</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那这这幅美丽的春光图让你脑海中产生了什么样的画面呢？你可以根据一个词或几个词，或者把你脑海中想象的说出来”体现出老师发起了一个开展课堂活动的指令。首先，“你可以”体现出这个课堂活动是针对某个学生的。进一步地，“把你脑海中想象的说出来”体现出该学生被要求用话语来表达自己的想象。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -782,7 +822,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -801,7 +841,11 @@
           <t>非常好，请坐这些景物都怎么样了，</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“非常好，请坐”体现出老师对之前学生的表现给予了肯定并让其坐下，“这些景物都怎么样了”体现出老师发起了一个开展课堂活动的指令，但没有明确说明具体的活动形式及参与主体。综合上述整段话的分析过程，这个课堂活动无法明确具体的课堂活动类别，符合“集体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“集体未知”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -833,7 +877,11 @@
           <t>你们知道什么是赶集吗，</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你们知道什么是赶集吗”体现出老师发起了一个开展课堂活动的指令。首先，“你们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“知道什么是赶集吗”体现出老师要求学生思考并回答赶集的概念，思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -860,7 +908,11 @@
           <t>嗯，好，请坐需要的物品看人山人海呀。那么在我们的春光图里，有这么多人，没有没有他们是怎样的郭成，你感受到了什么？</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那么在我们的春光图里，有这么多人，没有没有他们是怎样的郭成，你感受到了什么？”体现出老师发起了一个开展课堂活动的指令。首先，“你感受到了什么？”体现出老师邀请一位学生用话语来回答自己的感受。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -868,7 +920,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -887,7 +939,11 @@
           <t>嗯，你仿佛看到了烂漫无比的春天。好，请坐谁再来谈一谈，还有什么感受这什么样的气氛？我们看到这两幅图都是怎样的氛围啊？</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“好，请坐谁再来谈一谈，还有什么感受这什么样的气氛？”体现出老师发起了一个开展课堂活动的指令，邀请一位学生用话语来分享自己的感受。“我们看到这两幅图都是怎样的氛围啊？”进一步明确了问题的指向。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -900,7 +956,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -919,7 +975,11 @@
           <t>气氛是非常热闹。好的，好好，请坐。那你能带着这样欢快的热闹的感觉，把这段读出来吗？读出热闹的感觉啊，来试一试关。</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那你能带着这样欢快的热闹的感觉，把这段读出来吗？读出热闹的感觉啊，来试一试关。”体现出老师发起了一个开展课堂活动的指令，其中，“你”体现出老师邀请一位特定的学生参与活动，“把这段读出来”中的“读”体现出该学生被要求朗读相关内容。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -932,7 +992,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -951,7 +1011,11 @@
           <t>由天上洒落着千条万条的柔柳，红的白的黄的花青的草绿的叶都像赶集似的聚拢来形成了烂漫无比的春天怎么样，</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是描述了一段文字内容，没有发起开展课堂活动的指令，也没有明确课堂活动的类型和要求。
@@ -978,7 +1042,11 @@
           <t>你读的非常好。那同学们，这个时候谁又加入了呢？小燕子们小燕子来了，小燕子来会会为这个春光图增添哪些生趣呢？我们来一起读这一段，</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“我们来一起读这一段”体现出老师发起了一个开展课堂活动的指令，其中“我们”体现出这个课堂活动是由全体学生共同参与的。“一起读”体现出这个活动是整齐划一地开展的朗读活动。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且整齐划一地开展的朗读活动，符合“学生齐读”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐读”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -986,7 +1054,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1005,7 +1073,11 @@
           <t>燕子来了，让这幅图怎么样了，罗伟彤，</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“燕子来了，让这幅图怎么样了”体现出老师发起了一个开展课堂活动的指令。但这个指令只是在提问，没有明确说明课堂活动的具体形式和要求。“罗伟彤”体现出老师邀请一位特定的学生参与活动，但同样没有明确该学生需要进行的具体活动。综合上述整段话的分析过程，这个课堂活动是由一名学生参与、且内容和参与形式都不知道，符合“个体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体未知”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1032,7 +1104,11 @@
           <t>让这个画面更怎么样了，做到了更有活力了。很好，你们都感受到了燕子加入了这幅图中，为这幅图增添了很多生趣。哎，现在我们开开始闯第三关，</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>集体未知</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“我们开始闯第三关”体现出老师发出了一个课堂活动的指令，其中，“我们”体现出该课堂活动是由学生集体参与的；“闯第三关”只体现出老师要求学生参与一个有闯关或比赛性质的活动，但是没有明确说明该活动的具体内容，没有进一步用于判断是属于“独立练习”、“学生齐读”、“学生齐写”、”学生听写“中哪一种由学生全体参与的课堂活动的特征。综合上述整段话的分析过程，这个课堂活动是由学生集体参与、但无法判定具体的课堂活动，符合“集体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“集体未知”。因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1040,7 +1116,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1059,7 +1135,11 @@
           <t>你们准备好了吗？</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>集体未知</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你们准备好了吗？”体现出老师在询问全体学生是否做好了准备，但没有明确提及具体的课堂活动内容。综合上述整段话的分析过程，无法确定具体的课堂活动类别。
@@ -1072,7 +1152,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1091,7 +1171,11 @@
           <t>有的同学读完了，已经开始在写任务单了，</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“有的同学读完了“表明第一部分同学完成了读书任务，可以理解为全体学生都参与读书活动，还有一部分学生还处于读书任务中，这体现了全体学生都参与了课堂活动，且学生的任务进度不一致，进一步地，“已经开始写任务单“表明完成读书任务的第一部分学生开始写任务单，更说明了学生进度不一致。因而，整个课堂活动由全体学生共同参与、且是独立进行的。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征，所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为这段话体现出老师在提醒学生课堂活动的进展状态，因此课堂活动的进行状态为“进行中”。
@@ -1099,7 +1183,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1118,7 +1202,11 @@
           <t>不易写字的姿势，看到罗美彤写的非常认真啊，一笔一划书写的非常的工整，</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是对罗美彤的写字表现进行了评价和表扬，并没有发起开展课堂活动的指令。
@@ -1145,7 +1233,11 @@
           <t>那现在和你的小伙伴交流交流，你的脑海中浮现了，怎样的画面开始交流，</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>小组学习</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那现在和你的小伙伴交流交流”体现出老师发起了一个开展课堂活动的指令，要求学生以两人或多人组合的方式开展交流活动。“开始交流”进一步明确了活动的开始。综合上述整段话的分析过程，这个课堂活动是学生以小组形式通过互相交流来达到自主学习的目的，符合“小组学习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“小组学习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1153,7 +1245,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1172,7 +1264,11 @@
           <t>好时间到，谁来分享一下你的收获，来分享一下你的收获。韩心怡，</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“谁来分享一下你的收获”体现出老师发起了一个开展课堂活动的指令，邀请一位学生用话语来分享自己的收获。“韩心怡”则是被邀请学生的名字。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1180,7 +1276,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1199,7 +1295,11 @@
           <t>用手沾了一下水面，有没有质疑到我来用哪儿粘的水面？你来找我来走。</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>个体未知</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“有没有质疑到我来用哪儿粘的水面？你来找我来走”体现出老师发起了一个开展课堂活动的指令，邀请一个学生参与活动，让其寻找老师用手沾水面的位置。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种寻找活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1231,7 +1331,11 @@
           <t>好，请坐。希望你在读的时候再认真仔细一些。那同学们，韩信怡找到了斜飞沾，还有鸡，还有吗？</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那同学们，韩信怡找到了斜飞沾，还有鸡，还有吗？”体现出老师发起了一个开展课堂活动的指令。首先，“那同学们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“韩信怡找到了斜飞沾，还有鸡，还有吗？”体现出老师要求全体学生共同思考除了韩信怡找到的内容之外还有没有其他内容，思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1263,7 +1367,11 @@
           <t>好略这个词，你想谈谈你的感受吗，</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你想谈谈你的感受吗”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动，“谈谈感受”体现出该学生被要求用话语来描述自己的想法。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1271,7 +1379,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1290,7 +1398,11 @@
           <t>横略能说明他怎么样速，应该是快，那么瞻。我们说明他的身体很轻盈。没错，那如果我想换一换，换成其他词，你们觉得能不能达到这样的效果？我们试着来读一读男生，</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“我们试着来读一读男生”体现出老师发起了一个开展课堂活动的指令。首先，“我们”体现出这个课堂活动是由全体学生参与的。进一步地，“读一读”体现出老师让男生开展朗读活动，“试着”表明是尝试性的。综合上述整段话的分析过程，这个课堂活动是由全体男同学集体参与、且整齐划一地开展的朗读活动，符合“学生齐读”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐读”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1303,7 +1415,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1322,7 +1434,11 @@
           <t>而不是激起水花明白。好，那么在这里通过这几个词，我们感受到了小燕子是怎样的？唉，它是轻巧的，轻快灵活的。现在啊请你试着读出燕子的轻快灵活。好吧？</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“现在啊请你试着读出燕子的轻快灵活。好吧？”体现出老师发起了一个开展课堂活动的指令。“请你”体现出老师邀请一位学生参与活动，“试着读出”体现出该学生被要求通过朗读来展示燕子的轻快灵活。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1335,7 +1451,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1354,7 +1470,11 @@
           <t>那同学们在我们学习前半部分的这个学习方法中，你有哪些收获呢？我们是通过什么样的方式方法来学习之前的这些部分呢？你能说一说吗？李新成，</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你能说一说吗？李新成“体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动,”李新成“可能是被邀请学生的名字，结合上一句”你有哪些收获“可知，该学生被要求用话语来回答自己的收获。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1362,7 +1482,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1381,7 +1501,11 @@
           <t>好，你通过圈一圈的方法来学习，请坐张鹤，</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，”你是通过圈一圈的方法来学习“这句话是老师对学生学习方法的概括，其中的”好“字是老师对学生学习方法的肯定。”请坐张鹤”中的”张鹤“可能是一位学生的名字，体现出学生已经回答完毕，老师请张鹤这位同学坐下。综合上述整段话分析过程，这段话只是老师在概括学生的回答内容，并没有开展课堂活动的指令。所以，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -1413,7 +1537,11 @@
           <t>来读文，那现在到了第四关了，你能用我们学习的以上的这些方法来解决这一关吗，好，可以啊，你们都说可以做到，那现在给你时间，请你自己来学习。第五，</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“来读文”体现出老师发起了一个开展课堂活动的指令，结合“你们都说可以做到，那现在给你时间，请你自己来学习”，体现出老师要求全体学生独自按照之前学习的方法进行学习。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1426,7 +1554,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1445,7 +1573,11 @@
           <t>你们觉得像不像像嗯这样的蓝天作为背景几根细线上面还有几个小黑点组成了我们的这样的什么，说了一幅有趣的画画，你感受到它的有趣了吗？再次体会再读。第五，自然段，</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“再次体会再读。第五，自然段”体现出老师发起了一个开展课堂活动的指令。首先，“再次体会”体现出老师希望学生通过再次阅读来深入理解文本。进一步地，“再读第五自然段”明确了阅读的范围，体现出老师要求全体学生再次阅读第五自然段。由于阅读属于个体的大脑思维活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1453,7 +1585,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1472,7 +1604,11 @@
           <t>好，同学们，作者用这么优美的笔触来写小燕子来写春天，你读完了这篇课文，你有怎样的感受？你体会到了作者的情感是怎样的，韩鹏琪，</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“好，同学们，作者用这么优美的笔触来写小燕子来写春天，你读完了这篇课文，你有怎样的感受？你体会到了作者的情感是怎样的”体现出老师发起了一个开展课堂活动的指令，要求全体学生思考读完课文后的感受和体会到的作者情感。“韩鹏琪”体现出老师邀请一位叫韩鹏琪的同学回答问题。综合上述整段话的分析过程，这个课堂活动是由全体学生参与思考、个体学生回答问题，符合“独立练习”和“个体发言”的特征。因为执行该课堂活动的指令刚刚发出，所以预测的课堂活动类别是“独立练习”或“个体发言”，课堂活动的进行状态为“开始”。
@@ -1485,7 +1621,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1504,7 +1640,11 @@
           <t>好，那在这里啊，作者运用了这么多美好的事物和笔触，去描写这篇课文。那现在啊请你找一找文中优美生动的语句，把它抄写在你们的任务单上。第六题，</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那现在啊请你找一找文中优美生动的语句，把它抄写在你们的任务单上”体现出老师发起了一个开展课堂活动的指令。首先，“你们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“找一找文中优美生动的语句，把它抄写在任务单上”体现出老师要求学生完成寻找和抄写的任务，抄写活动通常是由每一个学生独自完成的。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1517,7 +1657,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1536,7 +1676,11 @@
           <t>每一笔，提前完成的同学可以写下边的奖励任务，</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“每一笔”不太明确具体含义。“提前完成的同学可以写下边的奖励任务”体现出老师发起了一个开展课堂活动的指令。首先，“提前完成的同学”体现出该活动是部分同学参与的。进一步地，“写下边的奖励任务”体现出老师要求这些同学开展书写活动。综合上述整段话的分析过程，这个课堂活动是由部分学生参与、且是一种书写活动，符合“个体书写”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体书写”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1568,7 +1712,11 @@
           <t>大家一起抬头来欣赏一下这几位同学的书写，再来评一评，感觉怎么样，最喜欢哪一个，或者说你想评一评他们写的怎么样，有没有值得你学习的地方，或者是他还有哪里不足来说一说新年好，</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“大家一起抬头来欣赏一下这几位同学的书写，再来评一评”体现出老师发起了一个开展课堂活动的指令。首先，“大家一起”体现出这个课堂活动是由全体学生共同参与的。进一步地，“欣赏一下这几位同学的书写”和“再来评一评”体现出老师要求学生对展示的书写进行观察和评价，由于评价活动是个体的大脑思维活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1581,7 +1729,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1600,7 +1748,11 @@
           <t>希望其他同学能够向他们学习。好，那同学们，我们学习完了这篇课文，相信你一到三自然段应该已经都会背了吧。嗯，那不会不太会的同学，请你看着书会背的抬头看着我，我们来一起背一下，一到三自然段，</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“那不会不太会的同学，请你看着书会背的抬头看着我，我们来一起背一下，一到三自然段”体现出老师发起了一个开展课堂活动的指令。首先，“我们来一起背一下”中的“我们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“背一下”体现出该活动是背诵活动，且通常情况下，背诵活动是整齐划一地开展。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且整齐划一地开展的背诵活动，符合“学生齐读”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐读”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1613,7 +1765,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
